--- a/CaseAndFatalityDemographicsData/2022-01-28.xlsx
+++ b/CaseAndFatalityDemographicsData/2022-01-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714674CE-0957-40FE-871A-58853220843B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F870B-5655-4A6B-8122-E6320DF875A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" tabRatio="764" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20460" yWindow="-2310" windowWidth="18750" windowHeight="19365" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by Age" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Confirmed Cases by RaceEth" sheetId="17" r:id="rId8"/>
     <sheet name="Probable Cases by RaceEth" sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -614,9 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643BF4CB-306D-47FD-BEB1-50FE6CB9B164}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -867,7 +865,7 @@
         <v>813</v>
       </c>
       <c r="I9">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="J9">
         <v>1748</v>
@@ -876,7 +874,7 @@
         <v>2145</v>
       </c>
       <c r="L9">
-        <v>6675</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1063,10 +1061,10 @@
         <v>1899</v>
       </c>
       <c r="K14" s="7">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="L14" s="7">
-        <v>7035</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1095,13 +1093,13 @@
         <v>3516</v>
       </c>
       <c r="I15" s="5">
-        <v>6567</v>
+        <v>6566</v>
       </c>
       <c r="J15" s="5">
         <v>8166</v>
       </c>
       <c r="K15" s="5">
-        <v>10776</v>
+        <v>10777</v>
       </c>
       <c r="L15" s="5">
         <v>31312</v>
@@ -1177,10 +1175,10 @@
         <v>1490</v>
       </c>
       <c r="K18">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="L18">
-        <v>5241</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,19 +1242,19 @@
         <v>109</v>
       </c>
       <c r="H20">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I20">
         <v>326</v>
       </c>
       <c r="J20">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K20">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L20">
-        <v>1240</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1288,13 +1286,13 @@
         <v>237</v>
       </c>
       <c r="J21">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K21">
         <v>184</v>
       </c>
       <c r="L21">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1329,10 +1327,10 @@
         <v>123</v>
       </c>
       <c r="K22">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1387,28 +1385,28 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G24">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H24">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="I24">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="J24">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="K24">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="L24">
-        <v>6862</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1425,28 +1423,28 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G25">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="H25">
-        <v>1520</v>
+        <v>1530</v>
       </c>
       <c r="I25">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="J25">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="K25">
         <v>1371</v>
       </c>
       <c r="L25">
-        <v>8270</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1463,28 +1461,28 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <v>232</v>
       </c>
       <c r="G26">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H26">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I26">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="J26">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="K26">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L26">
-        <v>4068</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,31 +1496,31 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>27</v>
       </c>
       <c r="F27">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H27">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I27">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J27">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K27">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L27">
-        <v>1626</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1536,31 +1534,31 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="I28" s="7">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="J28" s="7">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="K28" s="7">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="L28" s="7">
-        <v>1606</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1574,31 +1572,31 @@
         <v>16</v>
       </c>
       <c r="D29" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="5">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F29" s="5">
-        <v>1723</v>
+        <v>1735</v>
       </c>
       <c r="G29" s="5">
-        <v>3828</v>
+        <v>3858</v>
       </c>
       <c r="H29" s="5">
-        <v>6709</v>
+        <v>6765</v>
       </c>
       <c r="I29" s="5">
-        <v>10240</v>
+        <v>10305</v>
       </c>
       <c r="J29" s="5">
-        <v>10440</v>
+        <v>10510</v>
       </c>
       <c r="K29" s="5">
-        <v>10425</v>
+        <v>10482</v>
       </c>
       <c r="L29" s="5">
-        <v>43991</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1612,31 +1610,31 @@
         <v>24</v>
       </c>
       <c r="D31" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" s="10">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F31" s="10">
-        <v>2235</v>
+        <v>2247</v>
       </c>
       <c r="G31" s="10">
-        <v>5403</v>
+        <v>5433</v>
       </c>
       <c r="H31" s="10">
-        <v>10225</v>
+        <v>10281</v>
       </c>
       <c r="I31" s="10">
-        <v>16807</v>
+        <v>16871</v>
       </c>
       <c r="J31" s="10">
-        <v>18606</v>
+        <v>18676</v>
       </c>
       <c r="K31" s="10">
-        <v>21201</v>
+        <v>21259</v>
       </c>
       <c r="L31" s="10">
-        <v>75303</v>
+        <v>75603</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1788,13 +1786,13 @@
         <v>2731</v>
       </c>
       <c r="C9">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6675</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1873,13 +1871,13 @@
         <v>3011</v>
       </c>
       <c r="C14" s="7">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>7035</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1921,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C18">
         <v>3157</v>
@@ -1930,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5241</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,13 +1956,13 @@
         <v>552</v>
       </c>
       <c r="C20">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1240</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,7 +1970,7 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C21">
         <v>583</v>
@@ -1981,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,13 +1990,13 @@
         <v>271</v>
       </c>
       <c r="C22">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,16 +2021,16 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>2798</v>
+        <v>2803</v>
       </c>
       <c r="C24">
-        <v>4064</v>
+        <v>4073</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6862</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,16 +2038,16 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>3428</v>
+        <v>3436</v>
       </c>
       <c r="C25">
-        <v>4842</v>
+        <v>4852</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8270</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,16 +2055,16 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C26">
-        <v>2289</v>
+        <v>2298</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4068</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,16 +2072,16 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C27">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1626</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,16 +2089,16 @@
         <v>39</v>
       </c>
       <c r="B28" s="7">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="C28" s="7">
-        <v>934</v>
+        <v>1065</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>1606</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2108,16 +2106,16 @@
         <v>64</v>
       </c>
       <c r="B29" s="5">
-        <v>18356</v>
+        <v>18482</v>
       </c>
       <c r="C29" s="5">
-        <v>25635</v>
+        <v>25809</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <v>43991</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2139,16 +2137,16 @@
         <v>65</v>
       </c>
       <c r="B31" s="10">
-        <v>31547</v>
+        <v>31673</v>
       </c>
       <c r="C31" s="10">
-        <v>43755</v>
+        <v>43929</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="10">
-        <v>75303</v>
+        <v>75603</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2345,7 @@
         <v>110</v>
       </c>
       <c r="C9">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D9">
         <v>4083</v>
@@ -2362,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>6675</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,13 +2484,13 @@
         <v>47</v>
       </c>
       <c r="F14" s="7">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
       </c>
       <c r="H14" s="7">
-        <v>7035</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2503,7 +2501,7 @@
         <v>577</v>
       </c>
       <c r="C15" s="5">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="D15" s="5">
         <v>15478</v>
@@ -2512,7 +2510,7 @@
         <v>171</v>
       </c>
       <c r="F15" s="5">
-        <v>11890</v>
+        <v>11891</v>
       </c>
       <c r="G15" s="5">
         <v>18</v>
@@ -2558,7 +2556,7 @@
         <v>569</v>
       </c>
       <c r="D18">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E18">
         <v>32</v>
@@ -2570,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>5241</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2607,7 +2605,7 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D20">
         <v>577</v>
@@ -2616,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1240</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2642,13 +2640,13 @@
         <v>7</v>
       </c>
       <c r="F21">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,13 +2666,13 @@
         <v>7</v>
       </c>
       <c r="F22">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2711,22 +2709,22 @@
         <v>69</v>
       </c>
       <c r="C24">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D24">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="E24">
         <v>44</v>
       </c>
       <c r="F24">
-        <v>3393</v>
+        <v>3401</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>6860</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2737,22 +2735,22 @@
         <v>96</v>
       </c>
       <c r="C25">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D25">
-        <v>2966</v>
+        <v>2976</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>4138</v>
+        <v>4143</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25">
-        <v>8271</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,22 +2761,22 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D26">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="E26">
         <v>31</v>
       </c>
       <c r="F26">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26">
-        <v>4068</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2786,25 +2784,25 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D27">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E27">
         <v>14</v>
       </c>
       <c r="F27">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1625</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2812,25 +2810,25 @@
         <v>39</v>
       </c>
       <c r="B28" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D28" s="7">
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="E28" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7">
-        <v>840</v>
+        <v>939</v>
       </c>
       <c r="G28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
-        <v>1597</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2838,25 +2836,25 @@
         <v>64</v>
       </c>
       <c r="B29" s="5">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C29" s="5">
-        <v>4794</v>
+        <v>4840</v>
       </c>
       <c r="D29" s="5">
-        <v>17267</v>
+        <v>17381</v>
       </c>
       <c r="E29" s="5">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F29" s="5">
-        <v>20816</v>
+        <v>20944</v>
       </c>
       <c r="G29" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H29" s="5">
-        <v>43980</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,25 +2885,25 @@
         <v>65</v>
       </c>
       <c r="B31" s="10">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="C31" s="10">
-        <v>7972</v>
+        <v>8017</v>
       </c>
       <c r="D31" s="10">
-        <v>32745</v>
+        <v>32859</v>
       </c>
       <c r="E31" s="10">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F31" s="10">
-        <v>32706</v>
+        <v>32835</v>
       </c>
       <c r="G31" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H31" s="10">
-        <v>75292</v>
+        <v>75603</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5923,7 +5921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C2352B-A42A-43FC-8E4A-E32EF5E15C89}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
